--- a/data/daschland_ontology/daschland (Alice in DaSCHland)/resources.xlsx
+++ b/data/daschland_ontology/daschland (Alice in DaSCHland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/daschland_ontology/daschland (Alice in DaSCHland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/Customer_Projects/daschland-scripts/data/daschland_ontology/daschland (Alice in DaSCHland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD1480-99A8-FB4A-BB31-4565A22D83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C90DF7-5718-9B40-9313-9E6F983C8350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="800" windowWidth="34560" windowHeight="21580" tabRatio="500" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31360" yWindow="800" windowWidth="34560" windowHeight="21580" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Audio!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BookCover!$A$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BookEdition!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Character!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Character!$A$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$M$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Event!$A$1:$C$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Image!$A$1:$C$6</definedName>
@@ -1036,7 +1036,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="224">
   <si>
     <t>name</t>
   </si>
@@ -8408,7 +8408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -16062,11 +16062,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C999"/>
+  <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16154,7 +16154,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>67</v>
@@ -16164,10 +16164,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="6">
@@ -16176,10 +16176,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -16187,7 +16187,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>65</v>
@@ -16197,15 +16197,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6">
-        <v>11</v>
-      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
@@ -19150,16 +19142,13 @@
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B993" s="9"/>
     </row>
-    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B994" s="9"/>
-    </row>
+    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="resource-cardinalities" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
